--- a/services/chat_svc/chat_svc/data/common_question.xlsx
+++ b/services/chat_svc/chat_svc/data/common_question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luu Minh Hoang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983D5BD9-281C-4C29-8D80-F57210C5E66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D7468-8800-458C-AFF5-2736C6AB99A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>CÂU HỎI (INPUT)</t>
   </si>
@@ -283,13 +283,84 @@
       </rPr>
       <t xml:space="preserve">: Equipment – Thiết bị  </t>
     </r>
+  </si>
+  <si>
+    <t>Hướng dẫn tạo sự cố trên PM Portal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bước 1: Truy cập trang chủ PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pm.petrolimex.com.vn/portal/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bước 2: Đăng nhập bằng nick abc.sg@petrolimex.com.vn, xác thực OTP trên ứng dụng authenticator
+Bước 3: Chọn quản lý sự cố =&gt; Danh sách sự cố =&gt; Tạo mới sự cố
+Bước 4: Khai báo thông tin vào bộ lọc (Nên tìm mã thiết bị trước để copy vào mục thiết bị, các thông số khác sẽ tự được điền) 
+Bước 5: Khai báo đầy đủ rồi ấn lưu dữ liệu, lưu lại mã sự cố 2xxxxxxxxxx để tạo lệnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hướng dẫn tạo sự cố trên SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 1: Vào Tcode: IW21
+Bước 2: Chọn Notification
+Bước 3: Điền những thông tin sau: Equipment (gán mã sẽ tự động xuất những thông tin khác của thiết bị), Description (khoảng nhỏ nội dung lệnh sự cố ghi ngắn gọn, khoảng trống to phía dưới ghi nội dung sự cố đầy đủ), Required (ngày yêu cầu hoàn thành tối đa), Priority (mức độ)
+Bước 4: Chuyển sang thanh tác vụ Enchancement để khai báo tiếp
+Bước 5: Sau khi khai báo đầy đủ thông tin ấn Save lại </t>
+  </si>
+  <si>
+    <t>Đóng lệnh sửa chữa đơn lẻ, có vật tư trên PM Portal</t>
+  </si>
+  <si>
+    <t>Bước 1: Truy cập trang chủ PM: pm.petrolimex.com.vn/portal/login
+Bước 2: Đăng nhập bằng nick abc.sg@petrolimex.com.vn, xác thực OTP trên ứng dụng authenticator
+Bước 3: Chọn quản lý sự cố =&gt; Lệnh sửa chữa =&gt; Tìm lệnh sửa chữa cần đóng
+Bước 4: Tick đầu dòng của lệnh =&gt; Chọn thanh công cụ xác nhận công việc =&gt; Điền nội dung xác nhận + kết quả =&gt; xong ấn nút lưu
+Bước 5: Chọn thanh công cụ kết quả thực hiện =&gt; Điền đầy đủ các thông tin =&gt; ấn lưu thông tin ở phía dưới cùng bên phải màn hình
+Bước 6: Chọn hoàn thành kỹ thuật =&gt; Ấn xác nhận
+Bước 7: Chọn cập nhật mua ngoài ở thanh thao tác để thêm vật tư =&gt; Lấy mã lưu trữ của hoá đơn đã đưa lên FDA =&gt; Khai báo xong ấn lưu thông tin
+Lưu ý: Điền đơn giá trước thuế
+Nếu phần xây dựng có chi phí chung, chi phí nhà tạm,...thì nhập trước thuế và đơn vị là GOI.
+Nếu kế toán đã hạch toán sẽ không nhập được, phải nhập ngay khi hoàn thành lệnh và có hoá đơn.
+Bước 8: Đăng nhập vào SAP =&gt; Tìm lệnh sửa chữa và ghép hoá đơn.</t>
+  </si>
+  <si>
+    <t>Ghép hoá đơn trên SAP</t>
+  </si>
+  <si>
+    <t>Bước 1: Đăng nhập vào SAP 
+Bước 2: Chọn T-code ZTC_PM_MO
+Bước 3: Tìm kiếm lệnh cần thực hiện
+Bước 4:  Tick đầu dòng lệnh và Chọn Thông tin hoá đơn
+Bước 5: Điền mã lưu trữ, ngày tháng và company code 6620. Chọn search để tìm kiếm hoá đơn
+Bước 6: Tick đầu dòng hoá đơn tìm thấy, chọn select để ghép cặp
+Bước 7: Kiểm tra lại thông tin và chọn chuyển kế toán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +371,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,8 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,6 +925,38 @@
         <v>41</v>
       </c>
     </row>
+    <row r="50" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
